--- a/lagged_regression_results.xlsx
+++ b/lagged_regression_results.xlsx
@@ -410,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -462,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C2">
-        <v>0.004839705042094162</v>
+        <v>0.004764185929069782</v>
       </c>
       <c r="D2">
-        <v>0.004348904503459921</v>
+        <v>0.004446102385309209</v>
       </c>
       <c r="E2">
-        <v>0.1346883494269011</v>
+        <v>0.1349049753733086</v>
       </c>
       <c r="F2">
-        <v>0.05765242001132013</v>
+        <v>0.05838344074952501</v>
       </c>
       <c r="G2">
-        <v>2.3362132829889</v>
+        <v>2.310671889861272</v>
       </c>
       <c r="H2">
-        <v>0.02014975597997552</v>
+        <v>0.02155745720459645</v>
       </c>
       <c r="I2">
-        <v>0.01816524924053453</v>
+        <v>0.01820146949055923</v>
       </c>
       <c r="J2">
-        <v>0.01483699584812959</v>
+        <v>0.01479244681517911</v>
       </c>
       <c r="K2">
-        <v>5.457892503613877</v>
+        <v>5.339204582595018</v>
       </c>
       <c r="L2">
-        <v>-695.9627808005363</v>
+        <v>-673.4578859345445</v>
       </c>
       <c r="M2">
-        <v>-688.5753165229308</v>
+        <v>-666.1181240885835</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -503,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C3">
-        <v>0.004891033353616783</v>
+        <v>0.004874214837800367</v>
       </c>
       <c r="D3">
-        <v>0.004359498970593029</v>
+        <v>0.004454146927039688</v>
       </c>
       <c r="E3">
-        <v>0.1182330227210569</v>
+        <v>0.1193819753681027</v>
       </c>
       <c r="F3">
-        <v>0.05754877871455813</v>
+        <v>0.05845186081519139</v>
       </c>
       <c r="G3">
-        <v>2.054483611328966</v>
+        <v>2.042398200898265</v>
       </c>
       <c r="H3">
-        <v>0.04080963243201505</v>
+        <v>0.04202257806023436</v>
       </c>
       <c r="I3">
-        <v>0.01410631031515841</v>
+        <v>0.01427720354537121</v>
       </c>
       <c r="J3">
-        <v>0.01076429780775223</v>
+        <v>0.01085455494657028</v>
       </c>
       <c r="K3">
-        <v>4.220902909219333</v>
+        <v>4.171390411032428</v>
       </c>
       <c r="L3">
-        <v>-694.7375034239918</v>
+        <v>-672.3010612357778</v>
       </c>
       <c r="M3">
-        <v>-687.3500391463864</v>
+        <v>-664.9612993898168</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -544,40 +544,327 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C4">
-        <v>0.005293993464198435</v>
+        <v>0.005262273461824618</v>
       </c>
       <c r="D4">
-        <v>0.004387704524529284</v>
+        <v>0.004481112959378678</v>
       </c>
       <c r="E4">
-        <v>0.04883396160151258</v>
+        <v>0.04783795672851542</v>
       </c>
       <c r="F4">
-        <v>0.05749669075207427</v>
+        <v>0.05880534602585633</v>
       </c>
       <c r="G4">
-        <v>0.8493351697767204</v>
+        <v>0.8134967305095252</v>
       </c>
       <c r="H4">
-        <v>0.3963835355806785</v>
+        <v>0.4166053536572724</v>
       </c>
       <c r="I4">
-        <v>0.002439357798379782</v>
+        <v>0.002292568616415358</v>
       </c>
       <c r="J4">
-        <v>-0.0009422037006086015</v>
+        <v>-0.001171693298111176</v>
       </c>
       <c r="K4">
-        <v>0.7213702306196189</v>
+        <v>0.6617769305496773</v>
       </c>
       <c r="L4">
-        <v>-691.2434730285689</v>
+        <v>-668.7964394151584</v>
       </c>
       <c r="M4">
-        <v>-683.8560087509635</v>
+        <v>-661.4566775691974</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>290</v>
+      </c>
+      <c r="C5">
+        <v>0.004592014438857811</v>
+      </c>
+      <c r="D5">
+        <v>0.004403983077813221</v>
+      </c>
+      <c r="E5">
+        <v>0.1902817647736317</v>
+      </c>
+      <c r="F5">
+        <v>0.05842566962861858</v>
+      </c>
+      <c r="G5">
+        <v>3.256817867611161</v>
+      </c>
+      <c r="H5">
+        <v>0.001261386162874925</v>
+      </c>
+      <c r="I5">
+        <v>0.0355211616023382</v>
+      </c>
+      <c r="J5">
+        <v>0.03217227674679068</v>
+      </c>
+      <c r="K5">
+        <v>10.60686262279137</v>
+      </c>
+      <c r="L5">
+        <v>-678.6193735847012</v>
+      </c>
+      <c r="M5">
+        <v>-671.2796117387402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>290</v>
+      </c>
+      <c r="C6">
+        <v>0.005046579742121572</v>
+      </c>
+      <c r="D6">
+        <v>0.004465791467865782</v>
+      </c>
+      <c r="E6">
+        <v>0.09359485178528847</v>
+      </c>
+      <c r="F6">
+        <v>0.05925615170696846</v>
+      </c>
+      <c r="G6">
+        <v>1.579495952557476</v>
+      </c>
+      <c r="H6">
+        <v>0.1153199925135466</v>
+      </c>
+      <c r="I6">
+        <v>0.00858813100971989</v>
+      </c>
+      <c r="J6">
+        <v>0.005145728686836826</v>
+      </c>
+      <c r="K6">
+        <v>2.494807464145422</v>
+      </c>
+      <c r="L6">
+        <v>-670.6321454886399</v>
+      </c>
+      <c r="M6">
+        <v>-663.2923836426789</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>290</v>
+      </c>
+      <c r="C7">
+        <v>0.005578098236407866</v>
+      </c>
+      <c r="D7">
+        <v>0.004485191328348149</v>
+      </c>
+      <c r="E7">
+        <v>-0.01102336772435914</v>
+      </c>
+      <c r="F7">
+        <v>0.05950151963330881</v>
+      </c>
+      <c r="G7">
+        <v>-0.1852619528424327</v>
+      </c>
+      <c r="H7">
+        <v>0.8531539801684268</v>
+      </c>
+      <c r="I7">
+        <v>0.0001191593798050006</v>
+      </c>
+      <c r="J7">
+        <v>-0.003352649094570781</v>
+      </c>
+      <c r="K7">
+        <v>0.03432199117101346</v>
+      </c>
+      <c r="L7">
+        <v>-668.1653895274931</v>
+      </c>
+      <c r="M7">
+        <v>-660.8256276815321</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>290</v>
+      </c>
+      <c r="C8">
+        <v>0.005002851981642592</v>
+      </c>
+      <c r="D8">
+        <v>0.004465475324476738</v>
+      </c>
+      <c r="E8">
+        <v>0.09704863721204537</v>
+      </c>
+      <c r="F8">
+        <v>0.05926751887449463</v>
+      </c>
+      <c r="G8">
+        <v>1.637467521081089</v>
+      </c>
+      <c r="H8">
+        <v>0.1026249404918879</v>
+      </c>
+      <c r="I8">
+        <v>0.009224191180094432</v>
+      </c>
+      <c r="J8">
+        <v>0.005783997399469665</v>
+      </c>
+      <c r="K8">
+        <v>2.681299882595427</v>
+      </c>
+      <c r="L8">
+        <v>-670.8182605147847</v>
+      </c>
+      <c r="M8">
+        <v>-663.4784986688237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>290</v>
+      </c>
+      <c r="C9">
+        <v>0.005523921898002072</v>
+      </c>
+      <c r="D9">
+        <v>0.00448712752322237</v>
+      </c>
+      <c r="E9">
+        <v>-0.0004910510793385556</v>
+      </c>
+      <c r="F9">
+        <v>0.05950340977990846</v>
+      </c>
+      <c r="G9">
+        <v>-0.008252486389517139</v>
+      </c>
+      <c r="H9">
+        <v>0.9934212567011208</v>
+      </c>
+      <c r="I9">
+        <v>2.364705401491918e-07</v>
+      </c>
+      <c r="J9">
+        <v>-0.003471984930603966</v>
+      </c>
+      <c r="K9">
+        <v>6.810353165644334e-05</v>
+      </c>
+      <c r="L9">
+        <v>-668.1308998248019</v>
+      </c>
+      <c r="M9">
+        <v>-660.7911379788409</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>290</v>
+      </c>
+      <c r="C10">
+        <v>0.0058926957990221</v>
+      </c>
+      <c r="D10">
+        <v>0.004479901894906012</v>
+      </c>
+      <c r="E10">
+        <v>-0.06277621199799152</v>
+      </c>
+      <c r="F10">
+        <v>0.05915347309147289</v>
+      </c>
+      <c r="G10">
+        <v>-1.061243046556481</v>
+      </c>
+      <c r="H10">
+        <v>0.289468588022485</v>
+      </c>
+      <c r="I10">
+        <v>0.003895311668406065</v>
+      </c>
+      <c r="J10">
+        <v>0.0004366148339212117</v>
+      </c>
+      <c r="K10">
+        <v>1.126236803864441</v>
+      </c>
+      <c r="L10">
+        <v>-669.2626775131182</v>
+      </c>
+      <c r="M10">
+        <v>-661.9229156671572</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>290</v>
+      </c>
+      <c r="C11">
+        <v>0.005721225461572877</v>
+      </c>
+      <c r="D11">
+        <v>0.004488625342758658</v>
+      </c>
+      <c r="E11">
+        <v>-0.03119362669749769</v>
+      </c>
+      <c r="F11">
+        <v>0.05882760526309519</v>
+      </c>
+      <c r="G11">
+        <v>-0.5302549127742014</v>
+      </c>
+      <c r="H11">
+        <v>0.5963437883414756</v>
+      </c>
+      <c r="I11">
+        <v>0.0009753334643929357</v>
+      </c>
+      <c r="J11">
+        <v>-0.002493502183300134</v>
+      </c>
+      <c r="K11">
+        <v>0.2811702725211563</v>
+      </c>
+      <c r="L11">
+        <v>-668.4138159776933</v>
+      </c>
+      <c r="M11">
+        <v>-661.0740541317323</v>
       </c>
     </row>
   </sheetData>
